--- a/AutoRepository/configuration/FileDelete.xlsx
+++ b/AutoRepository/configuration/FileDelete.xlsx
@@ -25,10 +25,10 @@
     <t xml:space="preserve">Files in Location to be Deleted</t>
   </si>
   <si>
-    <t xml:space="preserve">/home/sanu/AutomationBasePackageExported/chimpProject/AutoRepository/database/</t>
+    <t xml:space="preserve">AutoRepository/database/</t>
   </si>
   <si>
-    <t xml:space="preserve">/home/sanu/AutomationBasePackageExported/chimpProject/AutoRepository/screenshot/</t>
+    <t xml:space="preserve">AutoRepository/screenshot/</t>
   </si>
 </sst>
 </file>
@@ -144,8 +144,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="70.8724489795918"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="69.25"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
